--- a/2018 Complete Star.xlsx
+++ b/2018 Complete Star.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjenkins/Desktop/complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA356832-A445-BB44-8CD1-8D907F20943D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171116FE-BD22-FD45-9DBD-59551177BA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13280" xr2:uid="{8E5C906D-3FBF-DD4E-9D8D-92A65F8EB039}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M1048576"/>
+      <selection activeCell="F1" sqref="F1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
